--- a/ExcelSheet/Target.xlsx
+++ b/ExcelSheet/Target.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6120" windowWidth="16176" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Stock Name</t>
   </si>
@@ -86,27 +86,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,16 +121,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -390,33 +390,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="31.44140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="16"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.88671875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="19.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="19.88671875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="12.5546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="10.44140625"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -446,379 +442,379 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
-        <v/>
-      </c>
-      <c r="E2" t="n">
+        <f t="shared" ref="D2:D16" si="0">C2-B2</f>
+        <v>99</v>
+      </c>
+      <c r="E2">
         <v>1541.76</v>
       </c>
-      <c r="F2" t="n">
-        <v>1328</v>
+      <c r="F2">
+        <v>1304</v>
       </c>
       <c r="G2">
-        <f>(F2*B2)-(E2*B2)</f>
-        <v/>
+        <f t="shared" ref="G2:G16" si="1">(F2*B2)-(E2*B2)</f>
+        <v>-237.76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1500</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
-        <v/>
-      </c>
-      <c r="E3" t="n">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E3">
         <v>6.79</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.25</v>
+      <c r="F3">
+        <v>6.03</v>
       </c>
       <c r="G3">
-        <f>(F3*B3)-(E3*B3)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2000</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
-        <v/>
-      </c>
-      <c r="E4" t="n">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="E4">
         <v>35.06</v>
       </c>
-      <c r="F4" t="n">
-        <v>32.8</v>
+      <c r="F4">
+        <v>32.700000000000003</v>
       </c>
       <c r="G4">
-        <f>(F4*B4)-(E4*B4)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-47.200000000000045</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>60</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.63</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F5">
+        <v>14.28</v>
       </c>
       <c r="G5">
-        <f>(F5*B5)-(E5*B5)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-228.50000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>60</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
-        <v/>
-      </c>
-      <c r="E6" t="n">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E6">
         <v>77.94</v>
       </c>
-      <c r="F6" t="n">
-        <v>69.25</v>
+      <c r="F6">
+        <v>71.5</v>
       </c>
       <c r="G6">
-        <f>(F6*B6)-(E6*B6)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-64.399999999999977</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>200</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
-        <v/>
-      </c>
-      <c r="E7" t="n">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="E7">
         <v>946.85</v>
       </c>
-      <c r="F7" t="n">
-        <v>751.7</v>
+      <c r="F7">
+        <v>760.9</v>
       </c>
       <c r="G7">
-        <f>(F7*B7)-(E7*B7)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-557.85000000000036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>200</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
-        <v/>
-      </c>
-      <c r="E8" t="n">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E8">
         <v>55.99</v>
       </c>
-      <c r="F8" t="n">
-        <v>40.85</v>
+      <c r="F8">
+        <v>41.2</v>
       </c>
       <c r="G8">
-        <f>(F8*B8)-(E8*B8)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-295.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>200</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
-        <v/>
-      </c>
-      <c r="E9" t="n">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E9">
         <v>77.37</v>
       </c>
-      <c r="F9" t="n">
-        <v>54</v>
+      <c r="F9">
+        <v>53.7</v>
       </c>
       <c r="G9">
-        <f>(F9*B9)-(E9*B9)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-473.40000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>40</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>200</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
-        <v/>
-      </c>
-      <c r="E10" t="n">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="E10">
         <v>114.73</v>
       </c>
-      <c r="F10" t="n">
-        <v>93</v>
+      <c r="F10">
+        <v>93.65</v>
       </c>
       <c r="G10">
-        <f>(F10*B10)-(E10*B10)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-843.19999999999982</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>200</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
-        <v/>
-      </c>
-      <c r="E11" t="n">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E11">
         <v>35.85</v>
       </c>
-      <c r="F11" t="n">
-        <v>34.3</v>
+      <c r="F11">
+        <v>34.85</v>
       </c>
       <c r="G11">
-        <f>(F11*B11)-(E11*B11)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>100</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
-        <v/>
-      </c>
-      <c r="E12" t="n">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E12">
         <v>448.86</v>
       </c>
-      <c r="F12" t="n">
-        <v>334.25</v>
+      <c r="F12">
+        <v>332.1</v>
       </c>
       <c r="G12">
-        <f>(F12*B12)-(E12*B12)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-233.51999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>100</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
-        <v/>
-      </c>
-      <c r="E13" t="n">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E13">
         <v>1420.68</v>
       </c>
-      <c r="F13" t="n">
-        <v>1364.05</v>
+      <c r="F13">
+        <v>1396.7</v>
       </c>
       <c r="G13">
-        <f>(F13*B13)-(E13*B13)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-23.980000000000018</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>500</v>
       </c>
       <c r="D14">
-        <f>C14-B14</f>
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v>132.17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="E14">
+        <v>132.16999999999999</v>
+      </c>
+      <c r="F14">
+        <v>122.75</v>
       </c>
       <c r="G14">
-        <f>(F14*B14)-(E14*B14)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-94.199999999999818</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1000</v>
       </c>
       <c r="D15">
-        <f>C15-B15</f>
-        <v/>
-      </c>
-      <c r="E15" t="n">
+        <f t="shared" si="0"/>
+        <v>985</v>
+      </c>
+      <c r="E15">
         <v>262.33</v>
       </c>
-      <c r="F15" t="n">
-        <v>277.5</v>
+      <c r="F15">
+        <v>282.35000000000002</v>
       </c>
       <c r="G15">
-        <f>(F15*B15)-(E15*B15)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>300.30000000000018</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>200</v>
       </c>
       <c r="D16">
-        <f>C16-B16</f>
-        <v/>
-      </c>
-      <c r="E16" t="n">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E16">
         <v>329.12</v>
       </c>
-      <c r="F16" t="n">
-        <v>303.85</v>
+      <c r="F16">
+        <v>301.35000000000002</v>
       </c>
       <c r="G16">
-        <f>(F16*B16)-(E16*B16)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-138.84999999999991</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/ExcelSheet/Target.xlsx
+++ b/ExcelSheet/Target.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="6120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6120" windowWidth="16176" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Stock Name</t>
   </si>
@@ -86,26 +86,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,17 +122,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -397,22 +397,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="31.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="16"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.88671875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="19.44140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="19.88671875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="12.5546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="10.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -442,379 +446,379 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D16" si="0">C2-B2</f>
-        <v>99</v>
-      </c>
-      <c r="E2">
+        <f>C2-B2</f>
+        <v/>
+      </c>
+      <c r="E2" t="n">
         <v>1541.76</v>
       </c>
-      <c r="F2">
-        <v>1304</v>
+      <c r="F2" t="n">
+        <v>1275.1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G16" si="1">(F2*B2)-(E2*B2)</f>
-        <v>-237.76</v>
+        <f>(F2*B2)-(E2*B2)</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1500</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="E3">
+        <f>C3-B3</f>
+        <v/>
+      </c>
+      <c r="E3" t="n">
         <v>6.79</v>
       </c>
-      <c r="F3">
-        <v>6.03</v>
+      <c r="F3" t="n">
+        <v>5.82</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>-152</v>
+        <f>(F3*B3)-(E3*B3)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>2000</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1980</v>
-      </c>
-      <c r="E4">
+        <f>C4-B4</f>
+        <v/>
+      </c>
+      <c r="E4" t="n">
         <v>35.06</v>
       </c>
-      <c r="F4">
-        <v>32.700000000000003</v>
+      <c r="F4" t="n">
+        <v>32.55</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>-47.200000000000045</v>
+        <f>(F4*B4)-(E4*B4)</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>60</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="F5">
-        <v>14.28</v>
+        <f>C5-B5</f>
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.69</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>-228.50000000000011</v>
+        <f>(F5*B5)-(E5*B5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>60</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E6">
+        <f>C6-B6</f>
+        <v/>
+      </c>
+      <c r="E6" t="n">
         <v>77.94</v>
       </c>
-      <c r="F6">
-        <v>71.5</v>
+      <c r="F6" t="n">
+        <v>70.25</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>-64.399999999999977</v>
+        <f>(F6*B6)-(E6*B6)</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>200</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="E7">
+        <f>C7-B7</f>
+        <v/>
+      </c>
+      <c r="E7" t="n">
         <v>946.85</v>
       </c>
-      <c r="F7">
-        <v>760.9</v>
+      <c r="F7" t="n">
+        <v>775</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-557.85000000000036</v>
+        <f>(F7*B7)-(E7*B7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>200</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E8">
+        <f>C8-B8</f>
+        <v/>
+      </c>
+      <c r="E8" t="n">
         <v>55.99</v>
       </c>
-      <c r="F8">
-        <v>41.2</v>
+      <c r="F8" t="n">
+        <v>40.05</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-295.79999999999995</v>
+        <f>(F8*B8)-(E8*B8)</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>200</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E9">
+        <f>C9-B9</f>
+        <v/>
+      </c>
+      <c r="E9" t="n">
         <v>77.37</v>
       </c>
-      <c r="F9">
-        <v>53.7</v>
+      <c r="F9" t="n">
+        <v>51.25</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-473.40000000000009</v>
+        <f>(F9*B9)-(E9*B9)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>200</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="E10">
+        <f>C10-B10</f>
+        <v/>
+      </c>
+      <c r="E10" t="n">
         <v>114.73</v>
       </c>
-      <c r="F10">
-        <v>93.65</v>
+      <c r="F10" t="n">
+        <v>94.15000000000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-843.19999999999982</v>
+        <f>(F10*B10)-(E10*B10)</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>200</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E11">
+        <f>C11-B11</f>
+        <v/>
+      </c>
+      <c r="E11" t="n">
         <v>35.85</v>
       </c>
-      <c r="F11">
-        <v>34.85</v>
+      <c r="F11" t="n">
+        <v>34.75</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-20</v>
+        <f>(F11*B11)-(E11*B11)</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>100</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E12">
+        <f>C12-B12</f>
+        <v/>
+      </c>
+      <c r="E12" t="n">
         <v>448.86</v>
       </c>
-      <c r="F12">
-        <v>332.1</v>
+      <c r="F12" t="n">
+        <v>330.75</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-233.51999999999998</v>
+        <f>(F12*B12)-(E12*B12)</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E13">
+        <f>C13-B13</f>
+        <v/>
+      </c>
+      <c r="E13" t="n">
         <v>1420.68</v>
       </c>
-      <c r="F13">
-        <v>1396.7</v>
+      <c r="F13" t="n">
+        <v>1404.1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-23.980000000000018</v>
+        <f>(F13*B13)-(E13*B13)</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>500</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="E14">
-        <v>132.16999999999999</v>
-      </c>
-      <c r="F14">
-        <v>122.75</v>
+        <f>C14-B14</f>
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v>132.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>119.2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-94.199999999999818</v>
+        <f>(F14*B14)-(E14*B14)</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>1000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>985</v>
-      </c>
-      <c r="E15">
+        <f>C15-B15</f>
+        <v/>
+      </c>
+      <c r="E15" t="n">
         <v>262.33</v>
       </c>
-      <c r="F15">
-        <v>282.35000000000002</v>
+      <c r="F15" t="n">
+        <v>283.9</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>300.30000000000018</v>
+        <f>(F15*B15)-(E15*B15)</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>200</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="E16">
+        <f>C16-B16</f>
+        <v/>
+      </c>
+      <c r="E16" t="n">
         <v>329.12</v>
       </c>
-      <c r="F16">
-        <v>301.35000000000002</v>
+      <c r="F16" t="n">
+        <v>298.4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>-138.84999999999991</v>
+        <f>(F16*B16)-(E16*B16)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>